--- a/liga_serie_A/datasets_liga_serie_A/pontuacoes_por_rodada_serie_A.xlsx
+++ b/liga_serie_A/datasets_liga_serie_A/pontuacoes_por_rodada_serie_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>Rodada 3</t>
+  </si>
+  <si>
+    <t>Rodada 4</t>
   </si>
   <si>
     <t>Real SCI</t>
@@ -581,13 +584,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,10 +600,13 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -611,10 +617,13 @@
       <c r="D2">
         <v>87.02001953125</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>99.66015625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -625,10 +634,13 @@
       <c r="D3">
         <v>86.7998046875</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>79.580078125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -639,10 +651,13 @@
       <c r="D4">
         <v>87.0498046875</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>81.06005859375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -653,10 +668,13 @@
       <c r="D5">
         <v>54.1201171875</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>98.27001953125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -667,10 +685,13 @@
       <c r="D6">
         <v>95.5498046875</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>85.669921875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -681,10 +702,13 @@
       <c r="D7">
         <v>85.52001953125</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>91.7001953125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>86.5498046875</v>
@@ -695,10 +719,13 @@
       <c r="D8">
         <v>87.2001953125</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>102.02001953125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>84.68994140625</v>
@@ -709,10 +736,13 @@
       <c r="D9">
         <v>86.9501953125</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>85.009765625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>83.990234375</v>
@@ -723,10 +753,13 @@
       <c r="D10">
         <v>68.52001953125</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>77.27978515625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>82.97998046875</v>
@@ -737,10 +770,13 @@
       <c r="D11">
         <v>59.969970703125</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>86.35986328125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>82.68017578125</v>
@@ -751,10 +787,13 @@
       <c r="D12">
         <v>77.419921875</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>82.72998046875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>82.68017578125</v>
@@ -765,10 +804,13 @@
       <c r="D13">
         <v>91.77001953125</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>81.580078125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>82.490234375</v>
@@ -779,10 +821,13 @@
       <c r="D14">
         <v>71.6201171875</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>74.56982421875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>81.9501953125</v>
@@ -793,10 +838,13 @@
       <c r="D15">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>76.02978515625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>80.25</v>
@@ -807,10 +855,13 @@
       <c r="D16">
         <v>58.6201171875</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>96.52978515625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>79.9501953125</v>
@@ -821,10 +872,13 @@
       <c r="D17">
         <v>48.300048828125</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>71.72021484375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>79.2998046875</v>
@@ -835,10 +889,13 @@
       <c r="D18">
         <v>84.7001953125</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>84.47998046875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>78.7998046875</v>
@@ -849,10 +906,13 @@
       <c r="D19">
         <v>80.10009765625</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>63.929931640625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>78.0498046875</v>
@@ -863,10 +923,13 @@
       <c r="D20">
         <v>62.52001953125</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>100.97998046875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>77.580078125</v>
@@ -877,10 +940,13 @@
       <c r="D21">
         <v>75.419921875</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>90.16015625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>76.7900390625</v>
@@ -891,10 +957,13 @@
       <c r="D22">
         <v>58.60009765625</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>91.39013671875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>75.330078125</v>
@@ -905,10 +974,13 @@
       <c r="D23">
         <v>90.2001953125</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>112.81005859375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>74.68994140625</v>
@@ -919,10 +991,13 @@
       <c r="D24">
         <v>63.300048828125</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>79.02978515625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>74.68994140625</v>
@@ -933,10 +1008,13 @@
       <c r="D25">
         <v>70.10009765625</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <v>98.47998046875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>74.68994140625</v>
@@ -947,10 +1025,13 @@
       <c r="D26">
         <v>70.10009765625</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <v>98.47998046875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>74.68994140625</v>
@@ -961,10 +1042,13 @@
       <c r="D27">
         <v>70.10009765625</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>98.47998046875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>74.08984375</v>
@@ -975,10 +1059,13 @@
       <c r="D28">
         <v>68.419921875</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <v>109.06005859375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>73.77978515625</v>
@@ -989,10 +1076,13 @@
       <c r="D29">
         <v>77.1201171875</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <v>88.31982421875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>73.08984375</v>
@@ -1003,10 +1093,13 @@
       <c r="D30">
         <v>75.10009765625</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>77.35986328125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>72.58984375</v>
@@ -1017,10 +1110,13 @@
       <c r="D31">
         <v>67.39990234375</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <v>119.31005859375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>72.5498046875</v>
@@ -1031,10 +1127,13 @@
       <c r="D32">
         <v>82.669921875</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <v>106.6201171875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>72.3798828125</v>
@@ -1045,10 +1144,13 @@
       <c r="D33">
         <v>82.169921875</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33">
+        <v>104.93017578125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>72.2900390625</v>
@@ -1059,10 +1161,13 @@
       <c r="D34">
         <v>91.990234375</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34">
+        <v>62.219970703125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>72.240234375</v>
@@ -1073,10 +1178,13 @@
       <c r="D35">
         <v>92.35009765625</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>75.6298828125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>71.08984375</v>
@@ -1087,10 +1195,13 @@
       <c r="D36">
         <v>56.39990234375</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <v>99.68017578125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>70.18994140625</v>
@@ -1101,10 +1212,13 @@
       <c r="D37">
         <v>77.919921875</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>80.06005859375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>69.4501953125</v>
@@ -1115,10 +1229,13 @@
       <c r="D38">
         <v>72.9501953125</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>94.56005859375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>69.39990234375</v>
@@ -1129,10 +1246,13 @@
       <c r="D39">
         <v>83.60009765625</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39">
+        <v>61.830078125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40">
         <v>68.47998046875</v>
@@ -1143,10 +1263,13 @@
       <c r="D40">
         <v>53.840087890625</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40">
+        <v>60.929931640625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41">
         <v>68.39990234375</v>
@@ -1157,10 +1280,13 @@
       <c r="D41">
         <v>38.219970703125</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41">
+        <v>77.06005859375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>67.990234375</v>
@@ -1171,10 +1297,13 @@
       <c r="D42">
         <v>76.919921875</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>63.820068359375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43">
         <v>67.68994140625</v>
@@ -1185,10 +1314,13 @@
       <c r="D43">
         <v>76.919921875</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43">
+        <v>79.85986328125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44">
         <v>67.14013671875</v>
@@ -1199,10 +1331,13 @@
       <c r="D44">
         <v>68.64990234375</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44">
+        <v>77.35986328125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45">
         <v>66.68994140625</v>
@@ -1213,10 +1348,13 @@
       <c r="D45">
         <v>75.419921875</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>93.18017578125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46">
         <v>66.60009765625</v>
@@ -1227,10 +1365,13 @@
       <c r="D46">
         <v>99.5498046875</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46">
+        <v>94.8701171875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47">
         <v>66.5</v>
@@ -1241,10 +1382,13 @@
       <c r="D47">
         <v>76.89990234375</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47">
+        <v>76.509765625</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B48">
         <v>66.2001953125</v>
@@ -1255,10 +1399,13 @@
       <c r="D48">
         <v>74.2998046875</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48">
+        <v>119.10986328125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B49">
         <v>66.14990234375</v>
@@ -1269,10 +1416,13 @@
       <c r="D49">
         <v>47.219970703125</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>97.330078125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B50">
         <v>65.39990234375</v>
@@ -1283,10 +1433,13 @@
       <c r="D50">
         <v>61.699951171875</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50">
+        <v>90.14990234375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51">
         <v>64.7900390625</v>
@@ -1297,10 +1450,13 @@
       <c r="D51">
         <v>65.1201171875</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>108.16015625</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B52">
         <v>64.75</v>
@@ -1311,10 +1467,13 @@
       <c r="D52">
         <v>64.47021484375</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>78.18017578125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B53">
         <v>64</v>
@@ -1325,10 +1484,13 @@
       <c r="D53">
         <v>81.52001953125</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53">
+        <v>78.6201171875</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B54">
         <v>63.64990234375</v>
@@ -1339,10 +1501,13 @@
       <c r="D54">
         <v>71.2001953125</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54">
+        <v>136.2099609375</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B55">
         <v>63.5</v>
@@ -1353,10 +1518,13 @@
       <c r="D55">
         <v>57.77001953125</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55">
+        <v>89.27001953125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B56">
         <v>63.489990234375</v>
@@ -1367,10 +1535,13 @@
       <c r="D56">
         <v>63.1201171875</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56">
+        <v>94.8701171875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B57">
         <v>63.080078125</v>
@@ -1381,10 +1552,13 @@
       <c r="D57">
         <v>74.02001953125</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>80.259765625</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B58">
         <v>61.550048828125</v>
@@ -1395,10 +1569,13 @@
       <c r="D58">
         <v>82.419921875</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58">
+        <v>122.259765625</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B59">
         <v>61.14990234375</v>
@@ -1409,10 +1586,13 @@
       <c r="D59">
         <v>40.77001953125</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59">
+        <v>51.6298828125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B60">
         <v>60.550048828125</v>
@@ -1423,10 +1603,13 @@
       <c r="D60">
         <v>71.39990234375</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60">
+        <v>90.6298828125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B61">
         <v>59</v>
@@ -1437,10 +1620,13 @@
       <c r="D61">
         <v>63.699951171875</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61">
+        <v>86.72021484375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B62">
         <v>58.989990234375</v>
@@ -1451,10 +1637,13 @@
       <c r="D62">
         <v>68.1201171875</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B63">
         <v>56.7900390625</v>
@@ -1465,10 +1654,13 @@
       <c r="D63">
         <v>23.7900390625</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63">
+        <v>53.389892578125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B64">
         <v>56.3798828125</v>
@@ -1479,10 +1671,13 @@
       <c r="D64">
         <v>47.35009765625</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64">
+        <v>102.56005859375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B65">
         <v>56.139892578125</v>
@@ -1493,10 +1688,13 @@
       <c r="D65">
         <v>63.89990234375</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65">
+        <v>99.16015625</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B66">
         <v>53.639892578125</v>
@@ -1507,10 +1705,13 @@
       <c r="D66">
         <v>68.5498046875</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66">
+        <v>67.580078125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B67">
         <v>50.030029296875</v>
@@ -1521,10 +1722,13 @@
       <c r="D67">
         <v>56</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67">
+        <v>72.3701171875</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B68">
         <v>47.929931640625</v>
@@ -1534,6 +1738,9 @@
       </c>
       <c r="D68">
         <v>59.719970703125</v>
+      </c>
+      <c r="E68">
+        <v>99.6298828125</v>
       </c>
     </row>
   </sheetData>

--- a/liga_serie_A/datasets_liga_serie_A/pontuacoes_por_rodada_serie_A.xlsx
+++ b/liga_serie_A/datasets_liga_serie_A/pontuacoes_por_rodada_serie_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>Rodada 4</t>
+  </si>
+  <si>
+    <t>Rodada 5</t>
   </si>
   <si>
     <t>Real SCI</t>
@@ -584,13 +587,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,10 +606,13 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -620,10 +626,13 @@
       <c r="E2">
         <v>99.66015625</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>82.419921875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -637,10 +646,13 @@
       <c r="E3">
         <v>79.580078125</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>73.009765625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -654,10 +666,13 @@
       <c r="E4">
         <v>81.06005859375</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>94.259765625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -671,10 +686,13 @@
       <c r="E5">
         <v>98.27001953125</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>92.72998046875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -688,10 +706,13 @@
       <c r="E6">
         <v>85.669921875</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>86.02978515625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -705,10 +726,13 @@
       <c r="E7">
         <v>91.7001953125</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>86.47998046875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>86.5498046875</v>
@@ -722,10 +746,13 @@
       <c r="E8">
         <v>102.02001953125</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>57.679931640625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>84.68994140625</v>
@@ -739,10 +766,13 @@
       <c r="E9">
         <v>85.009765625</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>73.919921875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>83.990234375</v>
@@ -756,10 +786,13 @@
       <c r="E10">
         <v>77.27978515625</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>57.919921875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>82.97998046875</v>
@@ -773,10 +806,13 @@
       <c r="E11">
         <v>86.35986328125</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>82.68017578125</v>
@@ -790,10 +826,13 @@
       <c r="E12">
         <v>82.72998046875</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>86.77001953125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>82.68017578125</v>
@@ -807,10 +846,13 @@
       <c r="E13">
         <v>81.580078125</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>86.77001953125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>82.490234375</v>
@@ -824,10 +866,13 @@
       <c r="E14">
         <v>74.56982421875</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>67.22998046875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>81.9501953125</v>
@@ -841,10 +886,13 @@
       <c r="E15">
         <v>76.02978515625</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>53.52001953125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>80.25</v>
@@ -858,10 +906,13 @@
       <c r="E16">
         <v>96.52978515625</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>84.97998046875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>79.9501953125</v>
@@ -875,10 +926,13 @@
       <c r="E17">
         <v>71.72021484375</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>77.080078125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>79.2998046875</v>
@@ -892,10 +946,13 @@
       <c r="E18">
         <v>84.47998046875</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>72.60986328125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>78.7998046875</v>
@@ -909,10 +966,13 @@
       <c r="E19">
         <v>63.929931640625</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>74.52001953125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>78.0498046875</v>
@@ -926,10 +986,13 @@
       <c r="E20">
         <v>100.97998046875</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>92.97021484375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>77.580078125</v>
@@ -943,10 +1006,13 @@
       <c r="E21">
         <v>90.16015625</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>81.02001953125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>76.7900390625</v>
@@ -960,10 +1026,13 @@
       <c r="E22">
         <v>91.39013671875</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>64.1201171875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>75.330078125</v>
@@ -977,10 +1046,13 @@
       <c r="E23">
         <v>112.81005859375</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>71.31005859375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>74.68994140625</v>
@@ -994,10 +1066,13 @@
       <c r="E24">
         <v>79.02978515625</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>74.3701171875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>74.68994140625</v>
@@ -1011,10 +1086,13 @@
       <c r="E25">
         <v>98.47998046875</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>86.22021484375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>74.68994140625</v>
@@ -1028,10 +1106,13 @@
       <c r="E26">
         <v>98.47998046875</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>86.22021484375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>74.68994140625</v>
@@ -1045,10 +1126,13 @@
       <c r="E27">
         <v>98.47998046875</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>86.22021484375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>74.08984375</v>
@@ -1062,10 +1146,13 @@
       <c r="E28">
         <v>109.06005859375</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>87.27001953125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>73.77978515625</v>
@@ -1079,10 +1166,13 @@
       <c r="E29">
         <v>88.31982421875</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>76.419921875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>73.08984375</v>
@@ -1096,10 +1186,13 @@
       <c r="E30">
         <v>77.35986328125</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>80.919921875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>72.58984375</v>
@@ -1113,10 +1206,13 @@
       <c r="E31">
         <v>119.31005859375</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>86.6201171875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>72.5498046875</v>
@@ -1130,10 +1226,13 @@
       <c r="E32">
         <v>106.6201171875</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>73.52978515625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>72.3798828125</v>
@@ -1147,10 +1246,13 @@
       <c r="E33">
         <v>104.93017578125</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33">
+        <v>66.22021484375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
         <v>72.2900390625</v>
@@ -1164,10 +1266,13 @@
       <c r="E34">
         <v>62.219970703125</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34">
+        <v>72.02001953125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>72.240234375</v>
@@ -1181,10 +1286,13 @@
       <c r="E35">
         <v>75.6298828125</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>84.60986328125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>71.08984375</v>
@@ -1198,10 +1306,13 @@
       <c r="E36">
         <v>99.68017578125</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36">
+        <v>67.6201171875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>70.18994140625</v>
@@ -1215,10 +1326,13 @@
       <c r="E37">
         <v>80.06005859375</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>82.18017578125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>69.4501953125</v>
@@ -1232,10 +1346,13 @@
       <c r="E38">
         <v>94.56005859375</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38">
+        <v>91.02001953125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39">
         <v>69.39990234375</v>
@@ -1249,10 +1366,13 @@
       <c r="E39">
         <v>61.830078125</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39">
+        <v>62.409912109375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40">
         <v>68.47998046875</v>
@@ -1266,10 +1386,13 @@
       <c r="E40">
         <v>60.929931640625</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40">
+        <v>72.330078125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41">
         <v>68.39990234375</v>
@@ -1283,10 +1406,13 @@
       <c r="E41">
         <v>77.06005859375</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41">
+        <v>69.919921875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>67.990234375</v>
@@ -1300,10 +1426,13 @@
       <c r="E42">
         <v>63.820068359375</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>80.3798828125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43">
         <v>67.68994140625</v>
@@ -1317,10 +1446,13 @@
       <c r="E43">
         <v>79.85986328125</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43">
+        <v>71.31982421875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44">
         <v>67.14013671875</v>
@@ -1334,10 +1466,13 @@
       <c r="E44">
         <v>77.35986328125</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44">
+        <v>59.919921875</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>66.68994140625</v>
@@ -1351,10 +1486,13 @@
       <c r="E45">
         <v>93.18017578125</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>82.72998046875</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46">
         <v>66.60009765625</v>
@@ -1368,10 +1506,13 @@
       <c r="E46">
         <v>94.8701171875</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46">
+        <v>83.02978515625</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47">
         <v>66.5</v>
@@ -1385,10 +1526,13 @@
       <c r="E47">
         <v>76.509765625</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47">
+        <v>70.41015625</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48">
         <v>66.2001953125</v>
@@ -1402,10 +1546,13 @@
       <c r="E48">
         <v>119.10986328125</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48">
+        <v>69.93017578125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>66.14990234375</v>
@@ -1419,10 +1566,13 @@
       <c r="E49">
         <v>97.330078125</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>88.580078125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50">
         <v>65.39990234375</v>
@@ -1436,10 +1586,13 @@
       <c r="E50">
         <v>90.14990234375</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50">
+        <v>58.429931640625</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>64.7900390625</v>
@@ -1453,10 +1606,13 @@
       <c r="E51">
         <v>108.16015625</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51">
+        <v>83.47998046875</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>64.75</v>
@@ -1470,10 +1626,13 @@
       <c r="E52">
         <v>78.18017578125</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>87.22998046875</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53">
         <v>64</v>
@@ -1487,10 +1646,13 @@
       <c r="E53">
         <v>78.6201171875</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53">
+        <v>69.3798828125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54">
         <v>63.64990234375</v>
@@ -1504,10 +1666,13 @@
       <c r="E54">
         <v>136.2099609375</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54">
+        <v>103.56982421875</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55">
         <v>63.5</v>
@@ -1521,10 +1686,13 @@
       <c r="E55">
         <v>89.27001953125</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55">
+        <v>80.8798828125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56">
         <v>63.489990234375</v>
@@ -1538,10 +1706,13 @@
       <c r="E56">
         <v>94.8701171875</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56">
+        <v>93.47021484375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>63.080078125</v>
@@ -1555,10 +1726,13 @@
       <c r="E57">
         <v>80.259765625</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>60.14990234375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58">
         <v>61.550048828125</v>
@@ -1572,10 +1746,13 @@
       <c r="E58">
         <v>122.259765625</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58">
+        <v>63.39990234375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59">
         <v>61.14990234375</v>
@@ -1589,10 +1766,13 @@
       <c r="E59">
         <v>51.6298828125</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59">
+        <v>84.68017578125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60">
         <v>60.550048828125</v>
@@ -1606,10 +1786,13 @@
       <c r="E60">
         <v>90.6298828125</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60">
+        <v>85.31982421875</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
         <v>59</v>
@@ -1623,10 +1806,13 @@
       <c r="E61">
         <v>86.72021484375</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61">
+        <v>81.72021484375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>58.989990234375</v>
@@ -1640,10 +1826,13 @@
       <c r="E62">
         <v>77</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>40.199951171875</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63">
         <v>56.7900390625</v>
@@ -1657,10 +1846,13 @@
       <c r="E63">
         <v>53.389892578125</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63">
+        <v>48.199951171875</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64">
         <v>56.3798828125</v>
@@ -1674,10 +1866,13 @@
       <c r="E64">
         <v>102.56005859375</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64">
+        <v>56.8798828125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65">
         <v>56.139892578125</v>
@@ -1691,10 +1886,13 @@
       <c r="E65">
         <v>99.16015625</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65">
+        <v>69.14990234375</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66">
         <v>53.639892578125</v>
@@ -1708,10 +1906,13 @@
       <c r="E66">
         <v>67.580078125</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66">
+        <v>74.91015625</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67">
         <v>50.030029296875</v>
@@ -1725,10 +1926,13 @@
       <c r="E67">
         <v>72.3701171875</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67">
+        <v>54.510009765625</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68">
         <v>47.929931640625</v>
@@ -1741,6 +1945,9 @@
       </c>
       <c r="E68">
         <v>99.6298828125</v>
+      </c>
+      <c r="F68">
+        <v>49.18994140625</v>
       </c>
     </row>
   </sheetData>

--- a/liga_serie_A/datasets_liga_serie_A/pontuacoes_por_rodada_serie_A.xlsx
+++ b/liga_serie_A/datasets_liga_serie_A/pontuacoes_por_rodada_serie_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Rodada 5</t>
+  </si>
+  <si>
+    <t>Rodada 6</t>
   </si>
   <si>
     <t>Real SCI</t>
@@ -587,13 +590,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,10 +612,13 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -629,10 +635,13 @@
       <c r="F2">
         <v>82.419921875</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>103.259765625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -649,10 +658,13 @@
       <c r="F3">
         <v>73.009765625</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>78.85986328125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -669,10 +681,13 @@
       <c r="F4">
         <v>94.259765625</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>80.06005859375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -689,10 +704,13 @@
       <c r="F5">
         <v>92.72998046875</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>75.259765625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -709,10 +727,13 @@
       <c r="F6">
         <v>86.02978515625</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>78.919921875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -729,10 +750,13 @@
       <c r="F7">
         <v>86.47998046875</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>88.06005859375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>86.5498046875</v>
@@ -749,10 +773,13 @@
       <c r="F8">
         <v>57.679931640625</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>102.06005859375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>84.68994140625</v>
@@ -769,10 +796,13 @@
       <c r="F9">
         <v>73.919921875</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>88.759765625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>83.990234375</v>
@@ -789,10 +819,13 @@
       <c r="F10">
         <v>57.919921875</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>84.0498046875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>82.97998046875</v>
@@ -809,10 +842,13 @@
       <c r="F11">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>92.4599609375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>82.68017578125</v>
@@ -829,10 +865,13 @@
       <c r="F12">
         <v>86.77001953125</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>86.9599609375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>82.68017578125</v>
@@ -849,10 +888,13 @@
       <c r="F13">
         <v>86.77001953125</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>82.60986328125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>82.490234375</v>
@@ -869,10 +911,13 @@
       <c r="F14">
         <v>67.22998046875</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>70.93017578125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>81.9501953125</v>
@@ -889,10 +934,13 @@
       <c r="F15">
         <v>53.52001953125</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>68.4501953125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>80.25</v>
@@ -909,10 +957,13 @@
       <c r="F16">
         <v>84.97998046875</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>98.7998046875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>79.9501953125</v>
@@ -929,10 +980,13 @@
       <c r="F17">
         <v>77.080078125</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>107.66015625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>79.2998046875</v>
@@ -949,10 +1003,13 @@
       <c r="F18">
         <v>72.60986328125</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>99.56005859375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>78.7998046875</v>
@@ -969,10 +1026,13 @@
       <c r="F19">
         <v>74.52001953125</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>49.260009765625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>78.0498046875</v>
@@ -989,10 +1049,13 @@
       <c r="F20">
         <v>92.97021484375</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <v>98.2099609375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>77.580078125</v>
@@ -1009,10 +1072,13 @@
       <c r="F21">
         <v>81.02001953125</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>92.06005859375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>76.7900390625</v>
@@ -1029,10 +1095,13 @@
       <c r="F22">
         <v>64.1201171875</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>102.85986328125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>75.330078125</v>
@@ -1049,10 +1118,13 @@
       <c r="F23">
         <v>71.31005859375</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>58.300048828125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>74.68994140625</v>
@@ -1069,10 +1141,13 @@
       <c r="F24">
         <v>74.3701171875</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <v>102.85986328125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>74.68994140625</v>
@@ -1089,10 +1164,13 @@
       <c r="F25">
         <v>86.22021484375</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25">
+        <v>98.16015625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>74.68994140625</v>
@@ -1109,10 +1187,13 @@
       <c r="F26">
         <v>86.22021484375</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26">
+        <v>98.16015625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>74.68994140625</v>
@@ -1129,10 +1210,13 @@
       <c r="F27">
         <v>86.22021484375</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>98.16015625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>74.08984375</v>
@@ -1149,10 +1233,13 @@
       <c r="F28">
         <v>87.27001953125</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28">
+        <v>106.06005859375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>73.77978515625</v>
@@ -1169,10 +1256,13 @@
       <c r="F29">
         <v>76.419921875</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>73.08984375</v>
@@ -1189,10 +1279,13 @@
       <c r="F30">
         <v>80.919921875</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30">
+        <v>98.2998046875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>72.58984375</v>
@@ -1209,10 +1302,13 @@
       <c r="F31">
         <v>86.6201171875</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31">
+        <v>104.2001953125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>72.5498046875</v>
@@ -1229,10 +1325,13 @@
       <c r="F32">
         <v>73.52978515625</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32">
+        <v>86.06005859375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>72.3798828125</v>
@@ -1249,10 +1348,13 @@
       <c r="F33">
         <v>66.22021484375</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33">
+        <v>108.56005859375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34">
         <v>72.2900390625</v>
@@ -1269,10 +1371,13 @@
       <c r="F34">
         <v>72.02001953125</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34">
+        <v>48.840087890625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>72.240234375</v>
@@ -1289,10 +1394,13 @@
       <c r="F35">
         <v>84.60986328125</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>98.06005859375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>71.08984375</v>
@@ -1309,10 +1417,13 @@
       <c r="F36">
         <v>67.6201171875</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36">
+        <v>109.64990234375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>70.18994140625</v>
@@ -1329,10 +1440,13 @@
       <c r="F37">
         <v>82.18017578125</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>110.31982421875</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>69.4501953125</v>
@@ -1349,10 +1463,13 @@
       <c r="F38">
         <v>91.02001953125</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38">
+        <v>106.14990234375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39">
         <v>69.39990234375</v>
@@ -1369,10 +1486,13 @@
       <c r="F39">
         <v>62.409912109375</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39">
+        <v>85.16015625</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40">
         <v>68.47998046875</v>
@@ -1389,10 +1509,13 @@
       <c r="F40">
         <v>72.330078125</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40">
+        <v>95.31982421875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41">
         <v>68.39990234375</v>
@@ -1409,10 +1532,13 @@
       <c r="F41">
         <v>69.919921875</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41">
+        <v>66.759765625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>67.990234375</v>
@@ -1429,10 +1555,13 @@
       <c r="F42">
         <v>80.3798828125</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>103.66015625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43">
         <v>67.68994140625</v>
@@ -1449,10 +1578,13 @@
       <c r="F43">
         <v>71.31982421875</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43">
+        <v>119.85009765625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44">
         <v>67.14013671875</v>
@@ -1469,10 +1601,13 @@
       <c r="F44">
         <v>59.919921875</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44">
+        <v>46.10009765625</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>66.68994140625</v>
@@ -1489,10 +1624,13 @@
       <c r="F45">
         <v>82.72998046875</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>131.6103515625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46">
         <v>66.60009765625</v>
@@ -1509,10 +1647,13 @@
       <c r="F46">
         <v>83.02978515625</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46">
+        <v>86.06005859375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47">
         <v>66.5</v>
@@ -1529,10 +1670,13 @@
       <c r="F47">
         <v>70.41015625</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47">
+        <v>110.35986328125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B48">
         <v>66.2001953125</v>
@@ -1549,10 +1693,13 @@
       <c r="F48">
         <v>69.93017578125</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48">
+        <v>107.7001953125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>66.14990234375</v>
@@ -1569,10 +1716,13 @@
       <c r="F49">
         <v>88.580078125</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>106.93017578125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B50">
         <v>65.39990234375</v>
@@ -1589,10 +1739,13 @@
       <c r="F50">
         <v>58.429931640625</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50">
+        <v>73.259765625</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>64.7900390625</v>
@@ -1609,10 +1762,13 @@
       <c r="F51">
         <v>83.47998046875</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51">
+        <v>82.64990234375</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>64.75</v>
@@ -1629,10 +1785,13 @@
       <c r="F52">
         <v>87.22998046875</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>86.35986328125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B53">
         <v>64</v>
@@ -1649,10 +1808,13 @@
       <c r="F53">
         <v>69.3798828125</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53">
+        <v>92.0498046875</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B54">
         <v>63.64990234375</v>
@@ -1669,10 +1831,13 @@
       <c r="F54">
         <v>103.56982421875</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54">
+        <v>78.56005859375</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B55">
         <v>63.5</v>
@@ -1689,10 +1854,13 @@
       <c r="F55">
         <v>80.8798828125</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55">
+        <v>59.969970703125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B56">
         <v>63.489990234375</v>
@@ -1709,10 +1877,13 @@
       <c r="F56">
         <v>93.47021484375</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56">
+        <v>111.43017578125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>63.080078125</v>
@@ -1729,10 +1900,13 @@
       <c r="F57">
         <v>60.14990234375</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>77.47998046875</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B58">
         <v>61.550048828125</v>
@@ -1749,10 +1923,13 @@
       <c r="F58">
         <v>63.39990234375</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58">
+        <v>88.35986328125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B59">
         <v>61.14990234375</v>
@@ -1769,10 +1946,13 @@
       <c r="F59">
         <v>84.68017578125</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59">
+        <v>69.60986328125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B60">
         <v>60.550048828125</v>
@@ -1789,10 +1969,13 @@
       <c r="F60">
         <v>85.31982421875</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60">
+        <v>100.85986328125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61">
         <v>59</v>
@@ -1809,10 +1992,13 @@
       <c r="F61">
         <v>81.72021484375</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61">
+        <v>93.35986328125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>58.989990234375</v>
@@ -1829,10 +2015,13 @@
       <c r="F62">
         <v>40.199951171875</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>62.43994140625</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B63">
         <v>56.7900390625</v>
@@ -1849,10 +2038,13 @@
       <c r="F63">
         <v>48.199951171875</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63">
+        <v>30.25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B64">
         <v>56.3798828125</v>
@@ -1869,10 +2061,13 @@
       <c r="F64">
         <v>56.8798828125</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64">
+        <v>61.8798828125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B65">
         <v>56.139892578125</v>
@@ -1889,10 +2084,13 @@
       <c r="F65">
         <v>69.14990234375</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65">
+        <v>77.85986328125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B66">
         <v>53.639892578125</v>
@@ -1909,10 +2107,13 @@
       <c r="F66">
         <v>74.91015625</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66">
+        <v>61.159912109375</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B67">
         <v>50.030029296875</v>
@@ -1929,10 +2130,13 @@
       <c r="F67">
         <v>54.510009765625</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67">
+        <v>65.5400390625</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B68">
         <v>47.929931640625</v>
@@ -1948,6 +2152,9 @@
       </c>
       <c r="F68">
         <v>49.18994140625</v>
+      </c>
+      <c r="G68">
+        <v>96.75</v>
       </c>
     </row>
   </sheetData>

--- a/liga_serie_A/datasets_liga_serie_A/pontuacoes_por_rodada_serie_A.xlsx
+++ b/liga_serie_A/datasets_liga_serie_A/pontuacoes_por_rodada_serie_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Rodada 6</t>
+  </si>
+  <si>
+    <t>Rodada 7</t>
   </si>
   <si>
     <t>Real SCI</t>
@@ -590,13 +593,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,10 +618,13 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -638,10 +644,13 @@
       <c r="G2">
         <v>103.259765625</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>94.33984375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -661,10 +670,13 @@
       <c r="G3">
         <v>78.85986328125</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>90.35986328125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -684,10 +696,13 @@
       <c r="G4">
         <v>80.06005859375</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>75.89013671875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -707,10 +722,13 @@
       <c r="G5">
         <v>75.259765625</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>80.14013671875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -730,10 +748,13 @@
       <c r="G6">
         <v>78.919921875</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>93.740234375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -753,10 +774,13 @@
       <c r="G7">
         <v>88.06005859375</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>97.58984375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>86.5498046875</v>
@@ -776,10 +800,13 @@
       <c r="G8">
         <v>102.06005859375</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>108.2900390625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>84.68994140625</v>
@@ -799,10 +826,13 @@
       <c r="G9">
         <v>88.759765625</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>96.10986328125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>83.990234375</v>
@@ -822,10 +852,13 @@
       <c r="G10">
         <v>84.0498046875</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>85.81005859375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>82.97998046875</v>
@@ -845,10 +878,13 @@
       <c r="G11">
         <v>92.4599609375</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>82.68017578125</v>
@@ -868,10 +904,13 @@
       <c r="G12">
         <v>86.9599609375</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>79.7001953125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>82.68017578125</v>
@@ -891,10 +930,13 @@
       <c r="G13">
         <v>82.60986328125</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>90.10986328125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>82.490234375</v>
@@ -914,10 +956,13 @@
       <c r="G14">
         <v>70.93017578125</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>79.43994140625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>81.9501953125</v>
@@ -937,10 +982,13 @@
       <c r="G15">
         <v>68.4501953125</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>85.83984375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>80.25</v>
@@ -960,10 +1008,13 @@
       <c r="G16">
         <v>98.7998046875</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>83.7900390625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>79.9501953125</v>
@@ -983,10 +1034,13 @@
       <c r="G17">
         <v>107.66015625</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>87.89013671875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>79.2998046875</v>
@@ -1006,10 +1060,13 @@
       <c r="G18">
         <v>99.56005859375</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>87.66015625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>78.7998046875</v>
@@ -1029,10 +1086,13 @@
       <c r="G19">
         <v>49.260009765625</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>79.66015625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>78.0498046875</v>
@@ -1052,10 +1112,13 @@
       <c r="G20">
         <v>98.2099609375</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>90.08984375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>77.580078125</v>
@@ -1075,10 +1138,13 @@
       <c r="G21">
         <v>92.06005859375</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>104.31005859375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>76.7900390625</v>
@@ -1098,10 +1164,13 @@
       <c r="G22">
         <v>102.85986328125</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>105.990234375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>75.330078125</v>
@@ -1121,10 +1190,13 @@
       <c r="G23">
         <v>58.300048828125</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>99.39013671875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>74.68994140625</v>
@@ -1144,10 +1216,13 @@
       <c r="G24">
         <v>102.85986328125</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>116.56005859375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>74.68994140625</v>
@@ -1167,10 +1242,13 @@
       <c r="G25">
         <v>98.16015625</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>96.68994140625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>74.68994140625</v>
@@ -1190,10 +1268,13 @@
       <c r="G26">
         <v>98.16015625</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>96.68994140625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>74.68994140625</v>
@@ -1213,10 +1294,13 @@
       <c r="G27">
         <v>98.16015625</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>96.68994140625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>74.08984375</v>
@@ -1236,10 +1320,13 @@
       <c r="G28">
         <v>106.06005859375</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <v>127.759765625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>73.77978515625</v>
@@ -1259,10 +1346,13 @@
       <c r="G29">
         <v>77.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <v>98.7900390625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
         <v>73.08984375</v>
@@ -1282,10 +1372,13 @@
       <c r="G30">
         <v>98.2998046875</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30">
+        <v>95.7900390625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>72.58984375</v>
@@ -1305,10 +1398,13 @@
       <c r="G31">
         <v>104.2001953125</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31">
+        <v>106.490234375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>72.5498046875</v>
@@ -1328,10 +1424,13 @@
       <c r="G32">
         <v>86.06005859375</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <v>133.8095703125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>72.3798828125</v>
@@ -1351,10 +1450,13 @@
       <c r="G33">
         <v>108.56005859375</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33">
+        <v>87.7099609375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <v>72.2900390625</v>
@@ -1374,10 +1476,13 @@
       <c r="G34">
         <v>48.840087890625</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34">
+        <v>114.66015625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>72.240234375</v>
@@ -1397,10 +1502,13 @@
       <c r="G35">
         <v>98.06005859375</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>85.68994140625</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
         <v>71.08984375</v>
@@ -1420,10 +1528,13 @@
       <c r="G36">
         <v>109.64990234375</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36">
+        <v>92.990234375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>70.18994140625</v>
@@ -1443,10 +1554,13 @@
       <c r="G37">
         <v>110.31982421875</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>96.35986328125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
         <v>69.4501953125</v>
@@ -1466,10 +1580,13 @@
       <c r="G38">
         <v>106.14990234375</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38">
+        <v>113.89013671875</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
         <v>69.39990234375</v>
@@ -1489,10 +1606,13 @@
       <c r="G39">
         <v>85.16015625</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39">
+        <v>100.16015625</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
         <v>68.47998046875</v>
@@ -1512,10 +1632,13 @@
       <c r="G40">
         <v>95.31982421875</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40">
+        <v>86.08984375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
         <v>68.39990234375</v>
@@ -1535,10 +1658,13 @@
       <c r="G41">
         <v>66.759765625</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41">
+        <v>99.2900390625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>67.990234375</v>
@@ -1558,10 +1684,13 @@
       <c r="G42">
         <v>103.66015625</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>91.5400390625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
         <v>67.68994140625</v>
@@ -1581,10 +1710,13 @@
       <c r="G43">
         <v>119.85009765625</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43">
+        <v>98.7099609375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
         <v>67.14013671875</v>
@@ -1604,10 +1736,13 @@
       <c r="G44">
         <v>46.10009765625</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44">
+        <v>89.68994140625</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>66.68994140625</v>
@@ -1627,10 +1762,13 @@
       <c r="G45">
         <v>131.6103515625</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>123.83984375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
         <v>66.60009765625</v>
@@ -1650,10 +1788,13 @@
       <c r="G46">
         <v>86.06005859375</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46">
+        <v>105.7099609375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
         <v>66.5</v>
@@ -1673,10 +1814,13 @@
       <c r="G47">
         <v>110.35986328125</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47">
+        <v>93.5400390625</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
         <v>66.2001953125</v>
@@ -1696,10 +1840,13 @@
       <c r="G48">
         <v>107.7001953125</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48">
+        <v>92.39013671875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>66.14990234375</v>
@@ -1719,10 +1866,13 @@
       <c r="G49">
         <v>106.93017578125</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>85.490234375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
         <v>65.39990234375</v>
@@ -1742,10 +1892,13 @@
       <c r="G50">
         <v>73.259765625</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50">
+        <v>86.240234375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
         <v>64.7900390625</v>
@@ -1765,10 +1918,13 @@
       <c r="G51">
         <v>82.64990234375</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51">
+        <v>98.18994140625</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>64.75</v>
@@ -1788,10 +1944,13 @@
       <c r="G52">
         <v>86.35986328125</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>94.58984375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
         <v>64</v>
@@ -1811,10 +1970,13 @@
       <c r="G53">
         <v>92.0498046875</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53">
+        <v>94.58984375</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
         <v>63.64990234375</v>
@@ -1834,10 +1996,13 @@
       <c r="G54">
         <v>78.56005859375</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54">
+        <v>119.89013671875</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
         <v>63.5</v>
@@ -1857,10 +2022,13 @@
       <c r="G55">
         <v>59.969970703125</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55">
+        <v>93.83984375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
         <v>63.489990234375</v>
@@ -1880,10 +2048,13 @@
       <c r="G56">
         <v>111.43017578125</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56">
+        <v>93.31005859375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>63.080078125</v>
@@ -1903,10 +2074,13 @@
       <c r="G57">
         <v>77.47998046875</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>95.89013671875</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
         <v>61.550048828125</v>
@@ -1926,10 +2100,13 @@
       <c r="G58">
         <v>88.35986328125</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58">
+        <v>91.509765625</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
         <v>61.14990234375</v>
@@ -1949,10 +2126,13 @@
       <c r="G59">
         <v>69.60986328125</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59">
+        <v>92.35986328125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
         <v>60.550048828125</v>
@@ -1972,10 +2152,13 @@
       <c r="G60">
         <v>100.85986328125</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60">
+        <v>96.39013671875</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
         <v>59</v>
@@ -1995,10 +2178,13 @@
       <c r="G61">
         <v>93.35986328125</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61">
+        <v>94.08984375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>58.989990234375</v>
@@ -2018,10 +2204,13 @@
       <c r="G62">
         <v>62.43994140625</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>105.83984375</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
         <v>56.7900390625</v>
@@ -2041,10 +2230,13 @@
       <c r="G63">
         <v>30.25</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63">
+        <v>76.85986328125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
         <v>56.3798828125</v>
@@ -2064,10 +2256,13 @@
       <c r="G64">
         <v>61.8798828125</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64">
+        <v>65.14013671875</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
         <v>56.139892578125</v>
@@ -2087,10 +2282,13 @@
       <c r="G65">
         <v>77.85986328125</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65">
+        <v>95.509765625</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
         <v>53.639892578125</v>
@@ -2110,10 +2308,13 @@
       <c r="G66">
         <v>61.159912109375</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66">
+        <v>96.759765625</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
         <v>50.030029296875</v>
@@ -2133,10 +2334,13 @@
       <c r="G67">
         <v>65.5400390625</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67">
+        <v>123.81005859375</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
         <v>47.929931640625</v>
@@ -2155,6 +2359,9 @@
       </c>
       <c r="G68">
         <v>96.75</v>
+      </c>
+      <c r="H68">
+        <v>141.41015625</v>
       </c>
     </row>
   </sheetData>

--- a/liga_serie_A/datasets_liga_serie_A/pontuacoes_por_rodada_serie_A.xlsx
+++ b/liga_serie_A/datasets_liga_serie_A/pontuacoes_por_rodada_serie_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Rodada 7</t>
+  </si>
+  <si>
+    <t>Rodada 8</t>
   </si>
   <si>
     <t>Real SCI</t>
@@ -593,13 +596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,10 +624,13 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>104.08984375</v>
@@ -647,10 +653,13 @@
       <c r="H2">
         <v>94.33984375</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>108.4501953125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>100.33984375</v>
@@ -673,10 +682,13 @@
       <c r="H3">
         <v>90.35986328125</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>98.14990234375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>96.39013671875</v>
@@ -699,10 +711,13 @@
       <c r="H4">
         <v>75.89013671875</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>96.18994140625</v>
@@ -725,10 +740,13 @@
       <c r="H5">
         <v>80.14013671875</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>82.7001953125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>95.22998046875</v>
@@ -751,10 +769,13 @@
       <c r="H6">
         <v>93.740234375</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>73.509765625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>93.85009765625</v>
@@ -777,10 +798,13 @@
       <c r="H7">
         <v>97.58984375</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>100.68994140625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>86.5498046875</v>
@@ -803,10 +827,13 @@
       <c r="H8">
         <v>108.2900390625</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>115.89990234375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>84.68994140625</v>
@@ -829,10 +856,13 @@
       <c r="H9">
         <v>96.10986328125</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>103.93017578125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>83.990234375</v>
@@ -855,10 +885,13 @@
       <c r="H10">
         <v>85.81005859375</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>89.39990234375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>82.97998046875</v>
@@ -881,10 +914,13 @@
       <c r="H11">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>77.240234375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>82.68017578125</v>
@@ -907,10 +943,13 @@
       <c r="H12">
         <v>79.7001953125</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>134.5400390625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>82.68017578125</v>
@@ -933,10 +972,13 @@
       <c r="H13">
         <v>90.10986328125</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>141.6904296875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>82.490234375</v>
@@ -959,10 +1001,13 @@
       <c r="H14">
         <v>79.43994140625</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <v>96.93994140625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>81.9501953125</v>
@@ -985,10 +1030,13 @@
       <c r="H15">
         <v>85.83984375</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>94.7998046875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>80.25</v>
@@ -1011,10 +1059,13 @@
       <c r="H16">
         <v>83.7900390625</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16">
+        <v>112.240234375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>79.9501953125</v>
@@ -1037,10 +1088,13 @@
       <c r="H17">
         <v>87.89013671875</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>102.83984375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>79.2998046875</v>
@@ -1063,10 +1117,13 @@
       <c r="H18">
         <v>87.66015625</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>98.4501953125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>78.7998046875</v>
@@ -1089,10 +1146,13 @@
       <c r="H19">
         <v>79.66015625</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>125.14990234375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>78.0498046875</v>
@@ -1115,10 +1175,13 @@
       <c r="H20">
         <v>90.08984375</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <v>89.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>77.580078125</v>
@@ -1141,10 +1204,13 @@
       <c r="H21">
         <v>104.31005859375</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21">
+        <v>98.490234375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>76.7900390625</v>
@@ -1167,10 +1233,13 @@
       <c r="H22">
         <v>105.990234375</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22">
+        <v>70.89013671875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>75.330078125</v>
@@ -1193,10 +1262,13 @@
       <c r="H23">
         <v>99.39013671875</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23">
+        <v>68.89013671875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>74.68994140625</v>
@@ -1219,10 +1291,13 @@
       <c r="H24">
         <v>116.56005859375</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24">
+        <v>92.2900390625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>74.68994140625</v>
@@ -1245,10 +1320,13 @@
       <c r="H25">
         <v>96.68994140625</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25">
+        <v>106.64990234375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>74.68994140625</v>
@@ -1271,10 +1349,13 @@
       <c r="H26">
         <v>96.68994140625</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26">
+        <v>106.64990234375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>74.68994140625</v>
@@ -1297,10 +1378,13 @@
       <c r="H27">
         <v>96.68994140625</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>96.0498046875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>74.08984375</v>
@@ -1323,10 +1407,13 @@
       <c r="H28">
         <v>127.759765625</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28">
+        <v>139.400390625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>73.77978515625</v>
@@ -1349,10 +1436,13 @@
       <c r="H29">
         <v>98.7900390625</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29">
+        <v>76.33984375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <v>73.08984375</v>
@@ -1375,10 +1465,13 @@
       <c r="H30">
         <v>95.7900390625</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30">
+        <v>99.4501953125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>72.58984375</v>
@@ -1401,10 +1494,13 @@
       <c r="H31">
         <v>106.490234375</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31">
+        <v>135.1904296875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32">
         <v>72.5498046875</v>
@@ -1427,10 +1523,13 @@
       <c r="H32">
         <v>133.8095703125</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32">
+        <v>92.97998046875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>72.3798828125</v>
@@ -1453,10 +1552,13 @@
       <c r="H33">
         <v>87.7099609375</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33">
+        <v>118.4501953125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34">
         <v>72.2900390625</v>
@@ -1479,10 +1581,13 @@
       <c r="H34">
         <v>114.66015625</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34">
+        <v>91.35009765625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>72.240234375</v>
@@ -1505,10 +1610,13 @@
       <c r="H35">
         <v>85.68994140625</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35">
+        <v>110.14990234375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36">
         <v>71.08984375</v>
@@ -1531,10 +1639,13 @@
       <c r="H36">
         <v>92.990234375</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36">
+        <v>80.89013671875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>70.18994140625</v>
@@ -1557,10 +1668,13 @@
       <c r="H37">
         <v>96.35986328125</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>120.740234375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38">
         <v>69.4501953125</v>
@@ -1583,10 +1697,13 @@
       <c r="H38">
         <v>113.89013671875</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38">
+        <v>135.490234375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39">
         <v>69.39990234375</v>
@@ -1609,10 +1726,13 @@
       <c r="H39">
         <v>100.16015625</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39">
+        <v>117.5498046875</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40">
         <v>68.47998046875</v>
@@ -1635,10 +1755,13 @@
       <c r="H40">
         <v>86.08984375</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40">
+        <v>46.89990234375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41">
         <v>68.39990234375</v>
@@ -1661,10 +1784,13 @@
       <c r="H41">
         <v>99.2900390625</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41">
+        <v>136.9404296875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>67.990234375</v>
@@ -1687,10 +1813,13 @@
       <c r="H42">
         <v>91.5400390625</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>83.68994140625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43">
         <v>67.68994140625</v>
@@ -1713,10 +1842,13 @@
       <c r="H43">
         <v>98.7099609375</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43">
+        <v>109.14990234375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44">
         <v>67.14013671875</v>
@@ -1739,10 +1871,13 @@
       <c r="H44">
         <v>89.68994140625</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44">
+        <v>98.60986328125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>66.68994140625</v>
@@ -1765,10 +1900,13 @@
       <c r="H45">
         <v>123.83984375</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>102.43994140625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46">
         <v>66.60009765625</v>
@@ -1791,10 +1929,13 @@
       <c r="H46">
         <v>105.7099609375</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46">
+        <v>97.39013671875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47">
         <v>66.5</v>
@@ -1817,10 +1958,13 @@
       <c r="H47">
         <v>93.5400390625</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47">
+        <v>112.35009765625</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B48">
         <v>66.2001953125</v>
@@ -1843,10 +1987,13 @@
       <c r="H48">
         <v>92.39013671875</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48">
+        <v>125.14013671875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>66.14990234375</v>
@@ -1869,10 +2016,13 @@
       <c r="H49">
         <v>85.490234375</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49">
+        <v>128.4404296875</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B50">
         <v>65.39990234375</v>
@@ -1895,10 +2045,13 @@
       <c r="H50">
         <v>86.240234375</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50">
+        <v>73.2900390625</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B51">
         <v>64.7900390625</v>
@@ -1921,10 +2074,13 @@
       <c r="H51">
         <v>98.18994140625</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51">
+        <v>92.490234375</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>64.75</v>
@@ -1947,10 +2103,13 @@
       <c r="H52">
         <v>94.58984375</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52">
+        <v>91.68994140625</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B53">
         <v>64</v>
@@ -1973,10 +2132,13 @@
       <c r="H53">
         <v>94.58984375</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53">
+        <v>122.83984375</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B54">
         <v>63.64990234375</v>
@@ -1999,10 +2161,13 @@
       <c r="H54">
         <v>119.89013671875</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54">
+        <v>93.0400390625</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B55">
         <v>63.5</v>
@@ -2025,10 +2190,13 @@
       <c r="H55">
         <v>93.83984375</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55">
+        <v>124.47998046875</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B56">
         <v>63.489990234375</v>
@@ -2051,10 +2219,13 @@
       <c r="H56">
         <v>93.31005859375</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56">
+        <v>115.2900390625</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>63.080078125</v>
@@ -2077,10 +2248,13 @@
       <c r="H57">
         <v>95.89013671875</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>45.0400390625</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B58">
         <v>61.550048828125</v>
@@ -2103,10 +2277,13 @@
       <c r="H58">
         <v>91.509765625</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58">
+        <v>131.349609375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B59">
         <v>61.14990234375</v>
@@ -2129,10 +2306,13 @@
       <c r="H59">
         <v>92.35986328125</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59">
+        <v>81.14990234375</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B60">
         <v>60.550048828125</v>
@@ -2155,10 +2335,13 @@
       <c r="H60">
         <v>96.39013671875</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60">
+        <v>121.93994140625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61">
         <v>59</v>
@@ -2181,10 +2364,13 @@
       <c r="H61">
         <v>94.08984375</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61">
+        <v>131.0595703125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>58.989990234375</v>
@@ -2207,10 +2393,13 @@
       <c r="H62">
         <v>105.83984375</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62">
+        <v>120.47998046875</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B63">
         <v>56.7900390625</v>
@@ -2233,10 +2422,13 @@
       <c r="H63">
         <v>76.85986328125</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63">
+        <v>38.949951171875</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B64">
         <v>56.3798828125</v>
@@ -2259,10 +2451,13 @@
       <c r="H64">
         <v>65.14013671875</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64">
+        <v>73.33984375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B65">
         <v>56.139892578125</v>
@@ -2285,10 +2480,13 @@
       <c r="H65">
         <v>95.509765625</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65">
+        <v>89.2900390625</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B66">
         <v>53.639892578125</v>
@@ -2311,10 +2509,13 @@
       <c r="H66">
         <v>96.759765625</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66">
+        <v>88.08984375</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B67">
         <v>50.030029296875</v>
@@ -2337,10 +2538,13 @@
       <c r="H67">
         <v>123.81005859375</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67">
+        <v>86.43017578125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B68">
         <v>47.929931640625</v>
@@ -2362,6 +2566,9 @@
       </c>
       <c r="H68">
         <v>141.41015625</v>
+      </c>
+      <c r="I68">
+        <v>90.5400390625</v>
       </c>
     </row>
   </sheetData>

--- a/liga_serie_A/datasets_liga_serie_A/pontuacoes_por_rodada_serie_A.xlsx
+++ b/liga_serie_A/datasets_liga_serie_A/pontuacoes_por_rodada_serie_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Rodada 8</t>
+  </si>
+  <si>
+    <t>Rodada 9</t>
   </si>
   <si>
     <t>OlhaEleAiF.C!</t>
@@ -455,13 +458,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,10 +489,13 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>96.18994140625</v>
@@ -515,10 +521,13 @@
       <c r="I2">
         <v>82.7001953125</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <v>102.7001953125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>95.22998046875</v>
@@ -544,10 +553,13 @@
       <c r="I3">
         <v>73.509765625</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>86.5498046875</v>
@@ -573,10 +585,13 @@
       <c r="I4">
         <v>115.89990234375</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <v>54.030029296875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>81.9501953125</v>
@@ -602,10 +617,13 @@
       <c r="I5">
         <v>94.7998046875</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>71.56982421875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>79.9501953125</v>
@@ -631,10 +649,13 @@
       <c r="I6">
         <v>102.83984375</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6">
+        <v>67.2001953125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>78.0498046875</v>
@@ -660,10 +681,13 @@
       <c r="I7">
         <v>89.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <v>64.85009765625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>77.580078125</v>
@@ -689,10 +713,13 @@
       <c r="I8">
         <v>98.490234375</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8">
+        <v>62.969970703125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>74.68994140625</v>
@@ -718,10 +745,13 @@
       <c r="I9">
         <v>96.0498046875</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9">
+        <v>73.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>73.08984375</v>
@@ -747,10 +777,13 @@
       <c r="I10">
         <v>99.4501953125</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10">
+        <v>73.27001953125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>72.58984375</v>
@@ -776,10 +809,13 @@
       <c r="I11">
         <v>135.1904296875</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11">
+        <v>74.31982421875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>72.3798828125</v>
@@ -805,10 +841,13 @@
       <c r="I12">
         <v>118.4501953125</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12">
+        <v>69.14990234375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>71.08984375</v>
@@ -834,10 +873,13 @@
       <c r="I13">
         <v>80.89013671875</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13">
+        <v>88.39990234375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>69.4501953125</v>
@@ -863,10 +905,13 @@
       <c r="I14">
         <v>135.490234375</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14">
+        <v>56.8701171875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>69.39990234375</v>
@@ -892,10 +937,13 @@
       <c r="I15">
         <v>117.5498046875</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15">
+        <v>69.47998046875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>68.39990234375</v>
@@ -921,10 +969,13 @@
       <c r="I16">
         <v>136.9404296875</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16">
+        <v>50.320068359375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>67.990234375</v>
@@ -950,10 +1001,13 @@
       <c r="I17">
         <v>83.68994140625</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>67.68017578125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>67.68994140625</v>
@@ -979,10 +1033,13 @@
       <c r="I18">
         <v>109.14990234375</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>83.89990234375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>66.60009765625</v>
@@ -1008,10 +1065,13 @@
       <c r="I19">
         <v>97.39013671875</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>75.5498046875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>64</v>
@@ -1037,10 +1097,13 @@
       <c r="I20">
         <v>122.83984375</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20">
+        <v>58.919921875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>61.550048828125</v>
@@ -1065,6 +1128,9 @@
       </c>
       <c r="I21">
         <v>131.349609375</v>
+      </c>
+      <c r="J21">
+        <v>59.77001953125</v>
       </c>
     </row>
   </sheetData>

--- a/liga_serie_A/datasets_liga_serie_A/pontuacoes_por_rodada_serie_A.xlsx
+++ b/liga_serie_A/datasets_liga_serie_A/pontuacoes_por_rodada_serie_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Rodada 9</t>
+  </si>
+  <si>
+    <t>Rodada 10</t>
   </si>
   <si>
     <t>OlhaEleAiF.C!</t>
@@ -458,13 +461,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,10 +495,13 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>96.18994140625</v>
@@ -524,10 +530,13 @@
       <c r="J2">
         <v>102.7001953125</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>78.52001953125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>95.22998046875</v>
@@ -556,10 +565,13 @@
       <c r="J3">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>53.3701171875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>86.5498046875</v>
@@ -588,10 +600,13 @@
       <c r="J4">
         <v>54.030029296875</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>71.27001953125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>81.9501953125</v>
@@ -620,10 +635,13 @@
       <c r="J5">
         <v>71.56982421875</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>72.52001953125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>79.9501953125</v>
@@ -652,10 +670,13 @@
       <c r="J6">
         <v>67.2001953125</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>47.969970703125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>78.0498046875</v>
@@ -684,10 +705,13 @@
       <c r="J7">
         <v>64.85009765625</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <v>76.919921875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>77.580078125</v>
@@ -716,10 +740,13 @@
       <c r="J8">
         <v>62.969970703125</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>66.06982421875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>74.68994140625</v>
@@ -748,10 +775,13 @@
       <c r="J9">
         <v>73.25</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>73.56982421875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>73.08984375</v>
@@ -780,10 +810,13 @@
       <c r="J10">
         <v>73.27001953125</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>73.56982421875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>72.58984375</v>
@@ -812,10 +845,13 @@
       <c r="J11">
         <v>74.31982421875</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <v>79.8701171875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>72.3798828125</v>
@@ -844,10 +880,13 @@
       <c r="J12">
         <v>69.14990234375</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>57.169921875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>71.08984375</v>
@@ -876,10 +915,13 @@
       <c r="J13">
         <v>88.39990234375</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>65.97021484375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>69.4501953125</v>
@@ -908,10 +950,13 @@
       <c r="J14">
         <v>56.8701171875</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>54.070068359375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>69.39990234375</v>
@@ -940,10 +985,13 @@
       <c r="J15">
         <v>69.47998046875</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>47.8701171875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>68.39990234375</v>
@@ -972,10 +1020,13 @@
       <c r="J16">
         <v>50.320068359375</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>63.919921875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>67.990234375</v>
@@ -1004,10 +1055,13 @@
       <c r="J17">
         <v>67.68017578125</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>73.56982421875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>67.68994140625</v>
@@ -1036,10 +1090,13 @@
       <c r="J18">
         <v>83.89990234375</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>73.669921875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>66.60009765625</v>
@@ -1068,10 +1125,13 @@
       <c r="J19">
         <v>75.5498046875</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>83.8701171875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>64</v>
@@ -1100,10 +1160,13 @@
       <c r="J20">
         <v>58.919921875</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>68.97021484375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>61.550048828125</v>
@@ -1131,6 +1194,9 @@
       </c>
       <c r="J21">
         <v>59.77001953125</v>
+      </c>
+      <c r="K21">
+        <v>60.77001953125</v>
       </c>
     </row>
   </sheetData>

--- a/liga_serie_A/datasets_liga_serie_A/pontuacoes_por_rodada_serie_A.xlsx
+++ b/liga_serie_A/datasets_liga_serie_A/pontuacoes_por_rodada_serie_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Rodada 10</t>
+  </si>
+  <si>
+    <t>Rodada 11</t>
   </si>
   <si>
     <t>OlhaEleAiF.C!</t>
@@ -461,13 +464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,10 +501,13 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>96.18994140625</v>
@@ -533,10 +539,13 @@
       <c r="K2">
         <v>78.52001953125</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>92.4599609375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>95.22998046875</v>
@@ -568,10 +577,13 @@
       <c r="K3">
         <v>53.3701171875</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>97.81005859375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>86.5498046875</v>
@@ -603,10 +615,13 @@
       <c r="K4">
         <v>71.27001953125</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>92.52001953125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>81.9501953125</v>
@@ -638,10 +653,13 @@
       <c r="K5">
         <v>72.52001953125</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>92.990234375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>79.9501953125</v>
@@ -673,10 +691,13 @@
       <c r="K6">
         <v>47.969970703125</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <v>73.66015625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>78.0498046875</v>
@@ -708,10 +729,13 @@
       <c r="K7">
         <v>76.919921875</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7">
+        <v>115.93994140625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>77.580078125</v>
@@ -743,10 +767,13 @@
       <c r="K8">
         <v>66.06982421875</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8">
+        <v>110.41015625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>74.68994140625</v>
@@ -778,10 +805,13 @@
       <c r="K9">
         <v>73.56982421875</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>113.64013671875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>73.08984375</v>
@@ -813,10 +843,13 @@
       <c r="K10">
         <v>73.56982421875</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>108.0400390625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>72.58984375</v>
@@ -848,10 +881,13 @@
       <c r="K11">
         <v>79.8701171875</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <v>105.5400390625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>72.3798828125</v>
@@ -883,10 +919,13 @@
       <c r="K12">
         <v>57.169921875</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>118.31005859375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>71.08984375</v>
@@ -918,10 +957,13 @@
       <c r="K13">
         <v>65.97021484375</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <v>91.91015625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>69.4501953125</v>
@@ -953,10 +995,13 @@
       <c r="K14">
         <v>54.070068359375</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14">
+        <v>115.77001953125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>69.39990234375</v>
@@ -988,10 +1033,13 @@
       <c r="K15">
         <v>47.8701171875</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15">
+        <v>71.7099609375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>68.39990234375</v>
@@ -1023,10 +1071,13 @@
       <c r="K16">
         <v>63.919921875</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>150.3701171875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>67.990234375</v>
@@ -1058,10 +1109,13 @@
       <c r="K17">
         <v>73.56982421875</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>120.5498046875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>67.68994140625</v>
@@ -1093,10 +1147,13 @@
       <c r="K18">
         <v>73.669921875</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>110.509765625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>66.60009765625</v>
@@ -1128,10 +1185,13 @@
       <c r="K19">
         <v>83.8701171875</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>96.919921875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>64</v>
@@ -1163,10 +1223,13 @@
       <c r="K20">
         <v>68.97021484375</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20">
+        <v>114.7099609375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>61.550048828125</v>
@@ -1197,6 +1260,9 @@
       </c>
       <c r="K21">
         <v>60.77001953125</v>
+      </c>
+      <c r="L21">
+        <v>122.41015625</v>
       </c>
     </row>
   </sheetData>

--- a/liga_serie_A/datasets_liga_serie_A/pontuacoes_por_rodada_serie_A.xlsx
+++ b/liga_serie_A/datasets_liga_serie_A/pontuacoes_por_rodada_serie_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Rodada 11</t>
+  </si>
+  <si>
+    <t>Rodada 12</t>
   </si>
   <si>
     <t>OlhaEleAiF.C!</t>
@@ -464,13 +467,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,10 +507,13 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>96.18994140625</v>
@@ -542,10 +548,13 @@
       <c r="L2">
         <v>92.4599609375</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>56.4599609375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>95.22998046875</v>
@@ -580,10 +589,13 @@
       <c r="L3">
         <v>97.81005859375</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>69.2998046875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>86.5498046875</v>
@@ -618,10 +630,13 @@
       <c r="L4">
         <v>92.52001953125</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>51.659912109375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>81.9501953125</v>
@@ -656,10 +671,13 @@
       <c r="L5">
         <v>92.990234375</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>68.66015625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>79.9501953125</v>
@@ -694,10 +712,13 @@
       <c r="L6">
         <v>73.66015625</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>35.5400390625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>78.0498046875</v>
@@ -732,10 +753,13 @@
       <c r="L7">
         <v>115.93994140625</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>94.259765625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>77.580078125</v>
@@ -770,10 +794,13 @@
       <c r="L8">
         <v>110.41015625</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>56.260009765625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>74.68994140625</v>
@@ -808,10 +835,13 @@
       <c r="L9">
         <v>113.64013671875</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>62.56005859375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>73.08984375</v>
@@ -846,10 +876,13 @@
       <c r="L10">
         <v>108.0400390625</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>69.259765625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>72.58984375</v>
@@ -884,10 +917,13 @@
       <c r="L11">
         <v>105.5400390625</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>69.91015625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>72.3798828125</v>
@@ -922,10 +958,13 @@
       <c r="L12">
         <v>118.31005859375</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>65.81005859375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>71.08984375</v>
@@ -960,10 +999,13 @@
       <c r="L13">
         <v>91.91015625</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>66.60009765625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>69.4501953125</v>
@@ -998,10 +1040,13 @@
       <c r="L14">
         <v>115.77001953125</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>63.56005859375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>69.39990234375</v>
@@ -1036,10 +1081,13 @@
       <c r="L15">
         <v>71.7099609375</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>93.509765625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>68.39990234375</v>
@@ -1074,10 +1122,13 @@
       <c r="L16">
         <v>150.3701171875</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>57.699951171875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>67.990234375</v>
@@ -1112,10 +1163,13 @@
       <c r="L17">
         <v>120.5498046875</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>66.9599609375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>67.68994140625</v>
@@ -1150,10 +1204,13 @@
       <c r="L18">
         <v>110.509765625</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>69.259765625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>66.60009765625</v>
@@ -1188,10 +1245,13 @@
       <c r="L19">
         <v>96.919921875</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>50.10009765625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20">
         <v>64</v>
@@ -1226,10 +1286,13 @@
       <c r="L20">
         <v>114.7099609375</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>95.66015625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21">
         <v>61.550048828125</v>
@@ -1263,6 +1326,9 @@
       </c>
       <c r="L21">
         <v>122.41015625</v>
+      </c>
+      <c r="M21">
+        <v>65.85986328125</v>
       </c>
     </row>
   </sheetData>

--- a/liga_serie_A/datasets_liga_serie_A/pontuacoes_por_rodada_serie_A.xlsx
+++ b/liga_serie_A/datasets_liga_serie_A/pontuacoes_por_rodada_serie_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Rodada 12</t>
+  </si>
+  <si>
+    <t>Rodada 13</t>
   </si>
   <si>
     <t>OlhaEleAiF.C!</t>
@@ -467,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,10 +513,13 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>96.18994140625</v>
@@ -551,10 +557,13 @@
       <c r="M2">
         <v>56.4599609375</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>70.2099609375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>95.22998046875</v>
@@ -592,10 +601,13 @@
       <c r="M3">
         <v>69.2998046875</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>67.91015625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>86.5498046875</v>
@@ -633,10 +645,13 @@
       <c r="M4">
         <v>51.659912109375</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>102.2099609375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>81.9501953125</v>
@@ -674,10 +689,13 @@
       <c r="M5">
         <v>68.66015625</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>108.509765625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>79.9501953125</v>
@@ -715,10 +733,13 @@
       <c r="M6">
         <v>35.5400390625</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>100.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>78.0498046875</v>
@@ -756,10 +777,13 @@
       <c r="M7">
         <v>94.259765625</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>118.740234375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>77.580078125</v>
@@ -797,10 +821,13 @@
       <c r="M8">
         <v>56.260009765625</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>107.64990234375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>74.68994140625</v>
@@ -838,10 +865,13 @@
       <c r="M9">
         <v>62.56005859375</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>121.2099609375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>73.08984375</v>
@@ -879,10 +909,13 @@
       <c r="M10">
         <v>69.259765625</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>132.2099609375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>72.58984375</v>
@@ -920,10 +953,13 @@
       <c r="M11">
         <v>69.91015625</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>118.740234375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>72.3798828125</v>
@@ -961,10 +997,13 @@
       <c r="M12">
         <v>65.81005859375</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>117.10986328125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>71.08984375</v>
@@ -1002,10 +1041,13 @@
       <c r="M13">
         <v>66.60009765625</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>105.91015625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>69.4501953125</v>
@@ -1043,10 +1085,13 @@
       <c r="M14">
         <v>63.56005859375</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>133.4404296875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>69.39990234375</v>
@@ -1084,10 +1129,13 @@
       <c r="M15">
         <v>93.509765625</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>113.669921875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>68.39990234375</v>
@@ -1125,10 +1173,13 @@
       <c r="M16">
         <v>57.699951171875</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>121.0400390625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>67.990234375</v>
@@ -1166,10 +1217,13 @@
       <c r="M17">
         <v>66.9599609375</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>117.509765625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>67.68994140625</v>
@@ -1207,10 +1261,13 @@
       <c r="M18">
         <v>69.259765625</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>111.91015625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>66.60009765625</v>
@@ -1248,10 +1305,13 @@
       <c r="M19">
         <v>50.10009765625</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>79.41015625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <v>64</v>
@@ -1289,10 +1349,13 @@
       <c r="M20">
         <v>95.66015625</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>130.2099609375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>61.550048828125</v>
@@ -1329,6 +1392,9 @@
       </c>
       <c r="M21">
         <v>65.85986328125</v>
+      </c>
+      <c r="N21">
+        <v>133.0498046875</v>
       </c>
     </row>
   </sheetData>

--- a/liga_serie_A/datasets_liga_serie_A/pontuacoes_por_rodada_serie_A.xlsx
+++ b/liga_serie_A/datasets_liga_serie_A/pontuacoes_por_rodada_serie_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Rodada 13</t>
+  </si>
+  <si>
+    <t>Rodada 14</t>
   </si>
   <si>
     <t>OlhaEleAiF.C!</t>
@@ -470,13 +473,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,10 +519,13 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>96.18994140625</v>
@@ -560,10 +566,13 @@
       <c r="N2">
         <v>70.2099609375</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>74.60009765625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>95.22998046875</v>
@@ -604,10 +613,13 @@
       <c r="N3">
         <v>67.91015625</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>48.199951171875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>86.5498046875</v>
@@ -648,10 +660,13 @@
       <c r="N4">
         <v>102.2099609375</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>67.60009765625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>81.9501953125</v>
@@ -692,10 +707,13 @@
       <c r="N5">
         <v>108.509765625</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>79.9501953125</v>
@@ -736,10 +754,13 @@
       <c r="N6">
         <v>100.75</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>53.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>78.0498046875</v>
@@ -780,10 +801,13 @@
       <c r="N7">
         <v>118.740234375</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>67.60009765625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>77.580078125</v>
@@ -824,10 +848,13 @@
       <c r="N8">
         <v>107.64990234375</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>78.3798828125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>74.68994140625</v>
@@ -868,10 +895,13 @@
       <c r="N9">
         <v>121.2099609375</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>73.08984375</v>
@@ -912,10 +942,13 @@
       <c r="N10">
         <v>132.2099609375</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>74.2001953125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>72.58984375</v>
@@ -956,10 +989,13 @@
       <c r="N11">
         <v>118.740234375</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>75.39990234375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>72.3798828125</v>
@@ -1000,10 +1036,13 @@
       <c r="N12">
         <v>117.10986328125</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>73.10009765625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>71.08984375</v>
@@ -1044,10 +1083,13 @@
       <c r="N13">
         <v>105.91015625</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>69.4501953125</v>
@@ -1088,10 +1130,13 @@
       <c r="N14">
         <v>133.4404296875</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>69.39990234375</v>
@@ -1132,10 +1177,13 @@
       <c r="N15">
         <v>113.669921875</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>75.7998046875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>68.39990234375</v>
@@ -1176,10 +1224,13 @@
       <c r="N16">
         <v>121.0400390625</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>92.60009765625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>67.990234375</v>
@@ -1220,10 +1271,13 @@
       <c r="N17">
         <v>117.509765625</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>68.919921875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>67.68994140625</v>
@@ -1264,10 +1318,13 @@
       <c r="N18">
         <v>111.91015625</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>74.2001953125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>66.60009765625</v>
@@ -1308,10 +1365,13 @@
       <c r="N19">
         <v>79.41015625</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>64.4501953125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>64</v>
@@ -1352,10 +1412,13 @@
       <c r="N20">
         <v>130.2099609375</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>72.39990234375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>61.550048828125</v>
@@ -1395,6 +1458,9 @@
       </c>
       <c r="N21">
         <v>133.0498046875</v>
+      </c>
+      <c r="O21">
+        <v>80.89990234375</v>
       </c>
     </row>
   </sheetData>

--- a/liga_serie_A/datasets_liga_serie_A/pontuacoes_por_rodada_serie_A.xlsx
+++ b/liga_serie_A/datasets_liga_serie_A/pontuacoes_por_rodada_serie_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Rodada 14</t>
+  </si>
+  <si>
+    <t>Rodada 15</t>
   </si>
   <si>
     <t>OlhaEleAiF.C!</t>
@@ -473,13 +476,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,10 +525,13 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>96.18994140625</v>
@@ -569,10 +575,13 @@
       <c r="O2">
         <v>74.60009765625</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>95.22998046875</v>
@@ -616,10 +625,13 @@
       <c r="O3">
         <v>48.199951171875</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>77.97998046875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>86.5498046875</v>
@@ -663,10 +675,13 @@
       <c r="O4">
         <v>67.60009765625</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>103.2998046875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>81.9501953125</v>
@@ -710,10 +725,13 @@
       <c r="O5">
         <v>76.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>99.2998046875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>79.9501953125</v>
@@ -757,10 +775,13 @@
       <c r="O6">
         <v>53.75</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>78.0498046875</v>
@@ -804,10 +825,13 @@
       <c r="O7">
         <v>67.60009765625</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>100.7001953125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>77.580078125</v>
@@ -851,10 +875,13 @@
       <c r="O8">
         <v>78.3798828125</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>88.490234375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>74.68994140625</v>
@@ -898,10 +925,13 @@
       <c r="O9">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>96.60009765625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>73.08984375</v>
@@ -945,10 +975,13 @@
       <c r="O10">
         <v>74.2001953125</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>101.7998046875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>72.58984375</v>
@@ -992,10 +1025,13 @@
       <c r="O11">
         <v>75.39990234375</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>104.2001953125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>72.3798828125</v>
@@ -1039,10 +1075,13 @@
       <c r="O12">
         <v>73.10009765625</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>71.08984375</v>
@@ -1086,10 +1125,13 @@
       <c r="O13">
         <v>66.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>89.39990234375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>69.4501953125</v>
@@ -1133,10 +1175,13 @@
       <c r="O14">
         <v>63.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>89.89990234375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>69.39990234375</v>
@@ -1180,10 +1225,13 @@
       <c r="O15">
         <v>75.7998046875</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>103.16015625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>68.39990234375</v>
@@ -1227,10 +1275,13 @@
       <c r="O16">
         <v>92.60009765625</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>102.89990234375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>67.990234375</v>
@@ -1274,10 +1325,13 @@
       <c r="O17">
         <v>68.919921875</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>92.68994140625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>67.68994140625</v>
@@ -1321,10 +1375,13 @@
       <c r="O18">
         <v>74.2001953125</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>101.7998046875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>66.60009765625</v>
@@ -1368,10 +1425,13 @@
       <c r="O19">
         <v>64.4501953125</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>97.2001953125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>64</v>
@@ -1415,10 +1475,13 @@
       <c r="O20">
         <v>72.39990234375</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>100.7998046875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21">
         <v>61.550048828125</v>
@@ -1461,6 +1524,9 @@
       </c>
       <c r="O21">
         <v>80.89990234375</v>
+      </c>
+      <c r="P21">
+        <v>81.2001953125</v>
       </c>
     </row>
   </sheetData>

--- a/liga_serie_A/datasets_liga_serie_A/pontuacoes_por_rodada_serie_A.xlsx
+++ b/liga_serie_A/datasets_liga_serie_A/pontuacoes_por_rodada_serie_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Rodada 15</t>
+  </si>
+  <si>
+    <t>Rodada 16</t>
   </si>
   <si>
     <t>OlhaEleAiF.C!</t>
@@ -476,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,10 +531,13 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>96.18994140625</v>
@@ -578,10 +584,13 @@
       <c r="P2">
         <v>105</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2">
+        <v>75.4599609375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>95.22998046875</v>
@@ -628,10 +637,13 @@
       <c r="P3">
         <v>77.97998046875</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3">
+        <v>86.7099609375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>86.5498046875</v>
@@ -678,10 +690,13 @@
       <c r="P4">
         <v>103.2998046875</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4">
+        <v>60.469970703125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>81.9501953125</v>
@@ -728,10 +743,13 @@
       <c r="P5">
         <v>99.2998046875</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5">
+        <v>81.419921875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>79.9501953125</v>
@@ -778,10 +796,13 @@
       <c r="P6">
         <v>80.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6">
+        <v>62.56005859375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>78.0498046875</v>
@@ -828,10 +849,13 @@
       <c r="P7">
         <v>100.7001953125</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7">
+        <v>84.31005859375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>77.580078125</v>
@@ -878,10 +902,13 @@
       <c r="P8">
         <v>88.490234375</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8">
+        <v>85.0498046875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>74.68994140625</v>
@@ -928,10 +955,13 @@
       <c r="P9">
         <v>96.60009765625</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9">
+        <v>74.3701171875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>73.08984375</v>
@@ -978,10 +1008,13 @@
       <c r="P10">
         <v>101.7998046875</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10">
+        <v>70.169921875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>72.58984375</v>
@@ -1028,10 +1061,13 @@
       <c r="P11">
         <v>104.2001953125</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11">
+        <v>75.06005859375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>72.3798828125</v>
@@ -1078,10 +1114,13 @@
       <c r="P12">
         <v>98.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12">
+        <v>80.35009765625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>71.08984375</v>
@@ -1128,10 +1167,13 @@
       <c r="P13">
         <v>89.39990234375</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13">
+        <v>63.780029296875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>69.4501953125</v>
@@ -1178,10 +1220,13 @@
       <c r="P14">
         <v>89.89990234375</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14">
+        <v>61.260009765625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15">
         <v>69.39990234375</v>
@@ -1228,10 +1273,13 @@
       <c r="P15">
         <v>103.16015625</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15">
+        <v>69.2099609375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16">
         <v>68.39990234375</v>
@@ -1278,10 +1326,13 @@
       <c r="P16">
         <v>102.89990234375</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16">
+        <v>70.10986328125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17">
         <v>67.990234375</v>
@@ -1328,10 +1379,13 @@
       <c r="P17">
         <v>92.68994140625</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17">
+        <v>69.509765625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18">
         <v>67.68994140625</v>
@@ -1378,10 +1432,13 @@
       <c r="P18">
         <v>101.7998046875</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18">
+        <v>74.009765625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19">
         <v>66.60009765625</v>
@@ -1428,10 +1485,13 @@
       <c r="P19">
         <v>97.2001953125</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19">
+        <v>76.91015625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20">
         <v>64</v>
@@ -1478,10 +1538,13 @@
       <c r="P20">
         <v>100.7998046875</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20">
+        <v>79.91015625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21">
         <v>61.550048828125</v>
@@ -1527,6 +1590,9 @@
       </c>
       <c r="P21">
         <v>81.2001953125</v>
+      </c>
+      <c r="Q21">
+        <v>50.60009765625</v>
       </c>
     </row>
   </sheetData>

--- a/liga_serie_A/datasets_liga_serie_A/pontuacoes_por_rodada_serie_A.xlsx
+++ b/liga_serie_A/datasets_liga_serie_A/pontuacoes_por_rodada_serie_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Rodada 16</t>
+  </si>
+  <si>
+    <t>Rodada 17</t>
   </si>
   <si>
     <t>OlhaEleAiF.C!</t>
@@ -479,13 +482,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,10 +537,13 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>96.18994140625</v>
@@ -587,10 +593,13 @@
       <c r="Q2">
         <v>75.4599609375</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>67.16015625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>95.22998046875</v>
@@ -640,10 +649,13 @@
       <c r="Q3">
         <v>86.7099609375</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>57.2099609375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>86.5498046875</v>
@@ -693,10 +705,13 @@
       <c r="Q4">
         <v>60.469970703125</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>60.35009765625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>81.9501953125</v>
@@ -746,10 +761,13 @@
       <c r="Q5">
         <v>81.419921875</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>72.31005859375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>79.9501953125</v>
@@ -799,10 +817,13 @@
       <c r="Q6">
         <v>62.56005859375</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>58.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>78.0498046875</v>
@@ -852,10 +873,13 @@
       <c r="Q7">
         <v>84.31005859375</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>41.7900390625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>77.580078125</v>
@@ -905,10 +929,13 @@
       <c r="Q8">
         <v>85.0498046875</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>58.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>74.68994140625</v>
@@ -958,10 +985,13 @@
       <c r="Q9">
         <v>74.3701171875</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>56.739990234375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>73.08984375</v>
@@ -1011,10 +1041,13 @@
       <c r="Q10">
         <v>70.169921875</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>52.840087890625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>72.58984375</v>
@@ -1064,10 +1097,13 @@
       <c r="Q11">
         <v>75.06005859375</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>58.510009765625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>72.3798828125</v>
@@ -1117,10 +1153,13 @@
       <c r="Q12">
         <v>80.35009765625</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>44.159912109375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>71.08984375</v>
@@ -1170,10 +1209,13 @@
       <c r="Q13">
         <v>63.780029296875</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>55.7099609375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>69.4501953125</v>
@@ -1223,10 +1265,13 @@
       <c r="Q14">
         <v>61.260009765625</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>45.260009765625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>69.39990234375</v>
@@ -1276,10 +1321,13 @@
       <c r="Q15">
         <v>69.2099609375</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>51.97998046875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>68.39990234375</v>
@@ -1329,10 +1377,13 @@
       <c r="Q16">
         <v>70.10986328125</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>36.7099609375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>67.990234375</v>
@@ -1382,10 +1433,13 @@
       <c r="Q17">
         <v>69.509765625</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>45.85009765625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>67.68994140625</v>
@@ -1435,10 +1489,13 @@
       <c r="Q18">
         <v>74.009765625</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>47.510009765625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>66.60009765625</v>
@@ -1488,10 +1545,13 @@
       <c r="Q19">
         <v>76.91015625</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>50.64990234375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>64</v>
@@ -1541,10 +1601,13 @@
       <c r="Q20">
         <v>79.91015625</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>51.31005859375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>61.550048828125</v>
@@ -1593,6 +1656,9 @@
       </c>
       <c r="Q21">
         <v>50.60009765625</v>
+      </c>
+      <c r="R21">
+        <v>80.10009765625</v>
       </c>
     </row>
   </sheetData>

--- a/liga_serie_A/datasets_liga_serie_A/pontuacoes_por_rodada_serie_A.xlsx
+++ b/liga_serie_A/datasets_liga_serie_A/pontuacoes_por_rodada_serie_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Rodada 17</t>
+  </si>
+  <si>
+    <t>Rodada 18</t>
   </si>
   <si>
     <t>OlhaEleAiF.C!</t>
@@ -482,13 +485,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,10 +543,13 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>96.18994140625</v>
@@ -596,10 +602,13 @@
       <c r="R2">
         <v>67.16015625</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2">
+        <v>65.47021484375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>95.22998046875</v>
@@ -652,10 +661,13 @@
       <c r="R3">
         <v>57.2099609375</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3">
+        <v>84.77978515625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>86.5498046875</v>
@@ -708,10 +720,13 @@
       <c r="R4">
         <v>60.35009765625</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4">
+        <v>91.64990234375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>81.9501953125</v>
@@ -764,10 +779,13 @@
       <c r="R5">
         <v>72.31005859375</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>79.9501953125</v>
@@ -820,10 +838,13 @@
       <c r="R6">
         <v>58.25</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6">
+        <v>83.7001953125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>78.0498046875</v>
@@ -876,10 +897,13 @@
       <c r="R7">
         <v>41.7900390625</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7">
+        <v>86.97021484375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>77.580078125</v>
@@ -932,10 +956,13 @@
       <c r="R8">
         <v>58.25</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8">
+        <v>71.06982421875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>74.68994140625</v>
@@ -988,10 +1015,13 @@
       <c r="R9">
         <v>56.739990234375</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9">
+        <v>81.10009765625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>73.08984375</v>
@@ -1044,10 +1074,13 @@
       <c r="R10">
         <v>52.840087890625</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10">
+        <v>94.8701171875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>72.58984375</v>
@@ -1100,10 +1133,13 @@
       <c r="R11">
         <v>58.510009765625</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11">
+        <v>78.8701171875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>72.3798828125</v>
@@ -1156,10 +1192,13 @@
       <c r="R12">
         <v>44.159912109375</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12">
+        <v>82.580078125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>71.08984375</v>
@@ -1212,10 +1251,13 @@
       <c r="R13">
         <v>55.7099609375</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>69.4501953125</v>
@@ -1268,10 +1310,13 @@
       <c r="R14">
         <v>45.260009765625</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14">
+        <v>66.47021484375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>69.39990234375</v>
@@ -1324,10 +1369,13 @@
       <c r="R15">
         <v>51.97998046875</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15">
+        <v>102.06982421875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>68.39990234375</v>
@@ -1380,10 +1428,13 @@
       <c r="R16">
         <v>36.7099609375</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16">
+        <v>88.919921875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>67.990234375</v>
@@ -1436,10 +1487,13 @@
       <c r="R17">
         <v>45.85009765625</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18">
         <v>67.68994140625</v>
@@ -1492,10 +1546,13 @@
       <c r="R18">
         <v>47.510009765625</v>
       </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>66.60009765625</v>
@@ -1548,10 +1605,13 @@
       <c r="R19">
         <v>50.64990234375</v>
       </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19">
+        <v>79.52001953125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20">
         <v>64</v>
@@ -1604,10 +1664,13 @@
       <c r="R20">
         <v>51.31005859375</v>
       </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20">
+        <v>109.39990234375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>61.550048828125</v>
@@ -1659,6 +1722,9 @@
       </c>
       <c r="R21">
         <v>80.10009765625</v>
+      </c>
+      <c r="S21">
+        <v>73.2001953125</v>
       </c>
     </row>
   </sheetData>

--- a/liga_serie_A/datasets_liga_serie_A/pontuacoes_por_rodada_serie_A.xlsx
+++ b/liga_serie_A/datasets_liga_serie_A/pontuacoes_por_rodada_serie_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Rodada 18</t>
+  </si>
+  <si>
+    <t>Rodada 19</t>
   </si>
   <si>
     <t>OlhaEleAiF.C!</t>
@@ -485,13 +488,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,10 +549,13 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>96.18994140625</v>
@@ -605,10 +611,13 @@
       <c r="S2">
         <v>65.47021484375</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2">
+        <v>61.800048828125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>95.22998046875</v>
@@ -664,10 +673,13 @@
       <c r="S3">
         <v>84.77978515625</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3">
+        <v>42.530029296875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>86.5498046875</v>
@@ -723,10 +735,13 @@
       <c r="S4">
         <v>91.64990234375</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4">
+        <v>49.85009765625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>81.9501953125</v>
@@ -782,10 +797,13 @@
       <c r="S5">
         <v>109</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5">
+        <v>45.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>79.9501953125</v>
@@ -841,10 +859,13 @@
       <c r="S6">
         <v>83.7001953125</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6">
+        <v>60.449951171875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>78.0498046875</v>
@@ -900,10 +921,13 @@
       <c r="S7">
         <v>86.97021484375</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>77.580078125</v>
@@ -959,10 +983,13 @@
       <c r="S8">
         <v>71.06982421875</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8">
+        <v>60.1201171875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>74.68994140625</v>
@@ -1018,10 +1045,13 @@
       <c r="S9">
         <v>81.10009765625</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9">
+        <v>62.449951171875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10">
         <v>73.08984375</v>
@@ -1077,10 +1107,13 @@
       <c r="S10">
         <v>94.8701171875</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10">
+        <v>69.60009765625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>72.58984375</v>
@@ -1136,10 +1169,13 @@
       <c r="S11">
         <v>78.8701171875</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11">
+        <v>69.10009765625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12">
         <v>72.3798828125</v>
@@ -1195,10 +1231,13 @@
       <c r="S12">
         <v>82.580078125</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>71.08984375</v>
@@ -1254,10 +1293,13 @@
       <c r="S13">
         <v>70</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14">
         <v>69.4501953125</v>
@@ -1313,10 +1355,13 @@
       <c r="S14">
         <v>66.47021484375</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14">
+        <v>51.300048828125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15">
         <v>69.39990234375</v>
@@ -1372,10 +1417,13 @@
       <c r="S15">
         <v>102.06982421875</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15">
+        <v>59.1298828125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16">
         <v>68.39990234375</v>
@@ -1431,10 +1479,13 @@
       <c r="S16">
         <v>88.919921875</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16">
+        <v>75.64990234375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17">
         <v>67.990234375</v>
@@ -1490,10 +1541,13 @@
       <c r="S17">
         <v>98</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17">
+        <v>68.18017578125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <v>67.68994140625</v>
@@ -1549,10 +1603,13 @@
       <c r="S18">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18">
+        <v>61.64990234375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19">
         <v>66.60009765625</v>
@@ -1608,10 +1665,13 @@
       <c r="S19">
         <v>79.52001953125</v>
       </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19">
+        <v>48.1298828125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20">
         <v>64</v>
@@ -1667,10 +1727,13 @@
       <c r="S20">
         <v>109.39990234375</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20">
+        <v>74.10009765625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21">
         <v>61.550048828125</v>
@@ -1725,6 +1788,9 @@
       </c>
       <c r="S21">
         <v>73.2001953125</v>
+      </c>
+      <c r="T21">
+        <v>62.949951171875</v>
       </c>
     </row>
   </sheetData>
